--- a/output/results_2023_09_19_02_filtered.xlsx
+++ b/output/results_2023_09_19_02_filtered.xlsx
@@ -16535,10 +16535,6 @@
           <t>Fox Racing Proframe Mountain Bike Helmet, Matte Black, X-Large</t>
         </is>
       </c>
-      <c r="E227" s="2">
-        <f>HYPERLINK("https://www.amazon.com/Fox-Racing-Proframe-Helmet-Matte/dp/B07FF15VWS/ref=sr_1_12?keywords=Fox+Racing+Proframe+RS+Helmet&amp;qid=1695124415&amp;sr=8-12", "https://www.amazon.com/Fox-Racing-Proframe-Helmet-Matte/dp/B07FF15VWS/ref=sr_1_12?keywords=Fox+Racing+Proframe+RS+Helmet&amp;qid=1695124415&amp;sr=8-12")</f>
-        <v/>
-      </c>
       <c r="F227" t="inlineStr">
         <is>
           <t>B07FF15VWS</t>
